--- a/all_tables_Borei.xlsx
+++ b/all_tables_Borei.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mac_doc\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD6238F-4967-4902-8AC2-CDA753D8AFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459AD8A7-470E-49D9-A037-E1D9911C38E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Доставка_" sheetId="1" r:id="rId1"/>
-    <sheet name="Заказано_" sheetId="2" r:id="rId2"/>
-    <sheet name="Заказы_" sheetId="3" r:id="rId3"/>
-    <sheet name="Клиенты_" sheetId="4" r:id="rId4"/>
-    <sheet name="Поставщики_" sheetId="5" r:id="rId5"/>
-    <sheet name="Сотрудники_" sheetId="6" r:id="rId6"/>
-    <sheet name="Типы_" sheetId="7" r:id="rId7"/>
-    <sheet name="Товары_" sheetId="8" r:id="rId8"/>
+    <sheet name="Доставка" sheetId="1" r:id="rId1"/>
+    <sheet name="Заказано" sheetId="2" r:id="rId2"/>
+    <sheet name="Заказы" sheetId="3" r:id="rId3"/>
+    <sheet name="Клиенты" sheetId="4" r:id="rId4"/>
+    <sheet name="Поставщики" sheetId="5" r:id="rId5"/>
+    <sheet name="Сотрудники" sheetId="6" r:id="rId6"/>
+    <sheet name="Типы" sheetId="7" r:id="rId7"/>
+    <sheet name="Товары" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -4227,7 +4227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -81002,7 +81002,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>790</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -82835,7 +82835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
